--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16828"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajans\Documents\Humber_Work\HSH - 90try\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prcv0038\Desktop\ModularSenseHat-master (1)\ModularSenseHat-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="72">
   <si>
     <t>Part</t>
   </si>
@@ -149,9 +149,6 @@
     <t>DIP-28</t>
   </si>
   <si>
-    <t>ICSPE-023017</t>
-  </si>
-  <si>
     <t>N-Channel Logic Level MOSFET</t>
   </si>
   <si>
@@ -159,9 +156,6 @@
   </si>
   <si>
     <t>2N7000</t>
-  </si>
-  <si>
-    <t>TRFET-007000</t>
   </si>
   <si>
     <t>8-bit I2C ADC&amp;DAC w/ sensors</t>
@@ -229,9 +223,6 @@
     <t>S7076-ND</t>
   </si>
   <si>
-    <t>S6104-ND</t>
-  </si>
-  <si>
     <t>BC1160CT-ND</t>
   </si>
   <si>
@@ -253,20 +244,53 @@
     <t>CF14JT10K0CT-ND</t>
   </si>
   <si>
-    <t>365-1175-ND</t>
-  </si>
-  <si>
     <t>MCP23017</t>
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>1497-1025-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 pin socket </t>
+  </si>
+  <si>
+    <t>ED3050-5-ND</t>
+  </si>
+  <si>
+    <t>ED3044-5-ND</t>
+  </si>
+  <si>
+    <t>8 Pin socket</t>
+  </si>
+  <si>
+    <t>MCP23017-E/SP-ND</t>
+  </si>
+  <si>
+    <t>2N7000BU-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Real Time clock Battery </t>
+  </si>
+  <si>
+    <t>P189-ND</t>
+  </si>
+  <si>
+    <t>1528-1385-ND</t>
+  </si>
+  <si>
+    <t>1x4 Header Female</t>
+  </si>
+  <si>
+    <t>S7002-ND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,16 +310,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -303,16 +341,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -625,10 +684,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="A22" sqref="A22:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,496 +701,610 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="H2" s="1">
+        <v>4.6399999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="H3" s="1">
+        <v>6.58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="H4" s="4">
+        <v>13.22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G5" s="4">
+        <v>1.34</v>
+      </c>
+      <c r="H5" s="4">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="G6" s="4">
+        <v>3.36</v>
+      </c>
+      <c r="H6" s="4">
+        <v>27.94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2">
-        <v>0.67</v>
-      </c>
-      <c r="H2">
-        <v>4.6399999999999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="4">
+        <v>3.73</v>
+      </c>
+      <c r="H7" s="4">
+        <v>30.83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1.45</v>
+      </c>
+      <c r="H8" s="4">
+        <v>10.050000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.45</v>
+      </c>
+      <c r="H9" s="4">
+        <v>11.37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="4">
+        <v>4</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="H12" s="4">
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="4">
+        <v>3</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4">
+        <v>4</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="H14" s="4">
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.61</v>
+      </c>
+      <c r="H15" s="4">
+        <v>4.3899999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="H16" s="4">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1.71</v>
+      </c>
+      <c r="H17" s="4">
+        <v>35.54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0.23</v>
+      </c>
+      <c r="H18" s="4">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0.47</v>
+      </c>
+      <c r="H19" s="4">
+        <v>4.4800000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="4">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3">
-        <v>1.7</v>
-      </c>
-      <c r="H3">
-        <v>13.22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4">
-        <v>1.34</v>
-      </c>
-      <c r="H4">
-        <v>11.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5">
-        <v>3.36</v>
-      </c>
-      <c r="H5">
-        <v>27.94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6">
+      <c r="C20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H20" s="4">
         <v>3.73</v>
       </c>
-      <c r="H6">
-        <v>30.83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7">
-        <v>1.45</v>
-      </c>
-      <c r="H7">
-        <v>10.050000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8">
-        <v>1.45</v>
-      </c>
-      <c r="H8">
-        <v>11.37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9">
-        <v>0.15</v>
-      </c>
-      <c r="H9">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10">
-        <v>0.15</v>
-      </c>
-      <c r="H10">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11">
-        <v>0.6</v>
-      </c>
-      <c r="H11">
-        <v>2.3199999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" t="s">
+    </row>
+    <row r="21" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="4">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0.48</v>
+      </c>
+      <c r="H21" s="4">
+        <v>4.41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="1">
+        <v>11.95</v>
+      </c>
+      <c r="H22" s="1">
+        <v>110.95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="H23" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G12">
-        <v>0.45</v>
-      </c>
-      <c r="H12">
-        <v>1.74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13">
-        <v>0.6</v>
-      </c>
-      <c r="H13">
-        <v>2.3199999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14">
-        <v>0.52</v>
-      </c>
-      <c r="H14">
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="H15">
-        <v>11.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16">
-        <v>11.95</v>
-      </c>
-      <c r="H16">
-        <v>110.95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17">
-        <v>2.8</v>
-      </c>
-      <c r="H17">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18">
-        <v>1.5</v>
-      </c>
-      <c r="H18">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19">
-        <v>8.5</v>
-      </c>
-      <c r="H19">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F21" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21">
-        <f>SUM(G2:G19)</f>
-        <v>42.04</v>
-      </c>
-      <c r="H21">
-        <f>SUM(H2:H19)</f>
-        <v>372.03999999999996</v>
+      <c r="G25" s="1">
+        <f>SUM(G2:G23)</f>
+        <v>42.07</v>
+      </c>
+      <c r="H25" s="1">
+        <f>SUM(H2:H23)</f>
+        <v>385.09999999999997</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" display="http://www.digikey.ca/product-detail/en/sullins-connector-solutions/PPTC041LFBN-RC/S7002-ND/810144"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="88" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>